--- a/OSM/OSM_keys.xlsx
+++ b/OSM/OSM_keys.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mateusz\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\A\pyth\github\DTL\OSM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5212487B-DB86-4A66-B4FB-A646DE1A4F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B152642-8CD8-47BD-B931-3A66B6700EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{13FDFCFE-A84D-4D9F-89BA-C30C85739000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="79">
   <si>
     <t>highway</t>
   </si>
@@ -125,12 +125,6 @@
   </si>
   <si>
     <t>Mountain biking explains how to tag mtb routes.</t>
-  </si>
-  <si>
-    <t>piste</t>
-  </si>
-  <si>
-    <t>Route of a piste (e.g., snowshoe or XC-Ski trails) in a winter sport area.</t>
   </si>
   <si>
     <t>railway</t>
@@ -1292,6 +1286,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1310,13 +1322,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1328,6 +1340,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1336,18 +1357,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1366,21 +1375,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1413,7 +1407,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1537,7 +1531,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>952500</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1599,7 +1593,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1661,7 +1655,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>952500</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1723,7 +1717,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1847,7 +1841,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1971,7 +1965,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2033,7 +2027,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>952500</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2095,7 +2089,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2219,7 +2213,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2281,7 +2275,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>952500</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2343,7 +2337,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2405,7 +2399,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>952500</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2467,7 +2461,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2529,7 +2523,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>952500</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2591,7 +2585,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2653,7 +2647,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>952500</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2715,7 +2709,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2777,7 +2771,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2839,7 +2833,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>952500</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2901,7 +2895,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3025,7 +3019,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3087,7 +3081,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3211,7 +3205,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3273,7 +3267,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>952500</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3335,7 +3329,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3397,7 +3391,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>952500</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3459,7 +3453,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3583,7 +3577,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3645,7 +3639,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>952500</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3678,6 +3672,254 @@
         <a:xfrm>
           <a:off x="3854450" y="23596600"/>
           <a:ext cx="952500" cy="1428750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Obraz 41" descr="way">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="way"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28AEDECB-CDF1-442D-944B-455EB1B82742}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2025650" y="25412700"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Obraz 42" descr="relation">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId33" tooltip="relation"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE7DCC8A-FC6A-4634-9DCB-877B47431E03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2222500" y="25412700"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Obraz 43">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId43"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F3F8178-7AE4-4329-820E-664688A089CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3244850" y="25412700"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Obraz 44">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId45"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F69B942-6C95-4B84-B8FA-EC522AFD8274}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3854450" y="25412700"/>
+          <a:ext cx="952500" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3711,159 +3953,35 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="Obraz 41" descr="way">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="way"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28AEDECB-CDF1-442D-944B-455EB1B82742}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2025650" y="25412700"/>
+        <xdr:cNvPr id="46" name="Obraz 45" descr="relation">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId33" tooltip="relation"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE26CBE0-E6DF-4553-9F9F-35C02E8DDD0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2025650" y="26282650"/>
           <a:ext cx="190500" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>196850</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="Obraz 42" descr="relation">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId33" tooltip="relation"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE7DCC8A-FC6A-4634-9DCB-877B47431E03}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2222500" y="25412700"/>
-          <a:ext cx="190500" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="44" name="Obraz 43">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId43"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F3F8178-7AE4-4329-820E-664688A089CE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3244850" y="25412700"/>
-          <a:ext cx="952500" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3893,39 +4011,39 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>952500</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="Obraz 44">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId45"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F69B942-6C95-4B84-B8FA-EC522AFD8274}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3854450" y="25412700"/>
-          <a:ext cx="952500" cy="647700"/>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="Obraz 46">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId47"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D424CC0E-5681-403E-95E0-E62FFB62F9CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3854450" y="26282650"/>
+          <a:ext cx="952500" cy="603250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3956,130 +4074,6 @@
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>57</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="46" name="Obraz 45" descr="relation">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId33" tooltip="relation"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE26CBE0-E6DF-4553-9F9F-35C02E8DDD0E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2025650" y="26282650"/>
-          <a:ext cx="190500" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="47" name="Obraz 46">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId47"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D424CC0E-5681-403E-95E0-E62FFB62F9CB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3854450" y="26282650"/>
-          <a:ext cx="952500" cy="603250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4203,7 +4197,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4327,7 +4321,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4389,7 +4383,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>952500</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4451,7 +4445,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4513,7 +4507,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>952500</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4575,7 +4569,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4637,7 +4631,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>952500</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4699,7 +4693,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4759,9 +4753,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
+      <xdr:colOff>390525</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4878,14 +4872,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4940,14 +4934,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5002,14 +4996,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5064,46 +5058,418 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="Obraz 63">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId63"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A176373-A2FD-4E9A-9B9B-6D60D1E653FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3854450" y="35064700"/>
+          <a:ext cx="952500" cy="1270000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="Obraz 64" descr="relation">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId33" tooltip="relation"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D9CFEED-56C8-44F0-8E3E-42D24DE0F9B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2025650" y="36175950"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="Obraz 65">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId65"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3F59B52-0533-472B-978A-AA715CA1E89C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3854450" y="36175950"/>
+          <a:ext cx="952500" cy="793750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="Obraz 66" descr="relation">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId33" tooltip="relation"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F2C6C63-8DA5-4F66-9A6F-DB7BBE3101E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2025650" y="36918900"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="Obraz 67">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId67"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8940B69F-92D8-48D8-AF9A-ED9CD6CFF1B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId68">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3854450" y="36918900"/>
+          <a:ext cx="952500" cy="717550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="Obraz 68" descr="relation">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId33" tooltip="relation"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A61D2910-C86D-48FC-8341-0B74AD29DAB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2025650" y="38074600"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>952500</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="64" name="Obraz 63">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId63"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A176373-A2FD-4E9A-9B9B-6D60D1E653FD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3854450" y="35064700"/>
-          <a:ext cx="952500" cy="1270000"/>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="70" name="Obraz 69">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId69"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{611E455E-E6EC-4D7F-B1D1-DD021D58FC27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId70">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3854450" y="38074600"/>
+          <a:ext cx="952500" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5133,15 +5499,15 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="65" name="Obraz 64" descr="relation">
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="71" name="Obraz 70" descr="relation">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId33" tooltip="relation"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D9CFEED-56C8-44F0-8E3E-42D24DE0F9B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CC6B522-FD5D-4C23-A44A-3D128BB59C66}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5164,7 +5530,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2025650" y="36175950"/>
+          <a:off x="2025650" y="39001700"/>
           <a:ext cx="190500" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5194,78 +5560,78 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="72" name="Obraz 71">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId71"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8773F5CA-4976-4BC3-9E1A-A697848CD26F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId72">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3854450" y="39001700"/>
+          <a:ext cx="952500" cy="641350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>53975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="66" name="Obraz 65">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId65"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3F59B52-0533-472B-978A-AA715CA1E89C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3854450" y="36175950"/>
-          <a:ext cx="952500" cy="793750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="67" name="Obraz 66" descr="relation">
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="73" name="Obraz 72" descr="relation">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId33" tooltip="relation"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F2C6C63-8DA5-4F66-9A6F-DB7BBE3101E3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3814530B-6BA1-4EFB-8F55-2D1C99EF9913}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5288,7 +5654,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2025650" y="36918900"/>
+          <a:off x="2025650" y="40036750"/>
           <a:ext cx="190500" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5312,45 +5678,45 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="68" name="Obraz 67">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId67"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8940B69F-92D8-48D8-AF9A-ED9CD6CFF1B3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId68">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3854450" y="36918900"/>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="74" name="Obraz 73">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId61"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE4CC805-4D8A-46F9-AC89-D21449EB7868}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3854450" y="40036750"/>
           <a:ext cx="952500" cy="717550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5374,22 +5740,22 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="69" name="Obraz 68" descr="relation">
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="75" name="Obraz 74" descr="relation">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId33" tooltip="relation"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A61D2910-C86D-48FC-8341-0B74AD29DAB6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E99A6535-081A-45FE-96C3-9FCD5A244217}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5412,7 +5778,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2025650" y="38074600"/>
+          <a:off x="2025650" y="40595550"/>
           <a:ext cx="190500" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5436,46 +5802,46 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="70" name="Obraz 69">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId69"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{611E455E-E6EC-4D7F-B1D1-DD021D58FC27}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId70">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3854450" y="38074600"/>
-          <a:ext cx="952500" cy="952500"/>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="76" name="Obraz 75">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId73"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B31BD658-43EC-46F1-AF0F-6524C9CC6641}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId74">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3854450" y="40595550"/>
+          <a:ext cx="952500" cy="704850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5498,22 +5864,22 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="71" name="Obraz 70" descr="relation">
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="77" name="Obraz 76" descr="relation">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId33" tooltip="relation"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CC6B522-FD5D-4C23-A44A-3D128BB59C66}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFCC4370-D1D6-440A-AA1C-21E79F04B9B0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5536,7 +5902,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2025650" y="39001700"/>
+          <a:off x="2025650" y="41751250"/>
           <a:ext cx="190500" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5560,108 +5926,294 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="78" name="Obraz 77">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId75"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A4BA980-C0F2-4CE0-9B61-323471B1FC99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId76">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3854450" y="41751250"/>
+          <a:ext cx="952500" cy="698500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="79" name="Obraz 78" descr="relation">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId33" tooltip="relation"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{160014E3-8863-4BC4-9D24-A3FF63FBA727}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2025650" y="42310050"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="80" name="Obraz 79" descr="node">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27" tooltip="node"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A1AE1F4-45D4-4001-96BB-788940E52143}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2025650" y="32137350"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>387350</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="81" name="Obraz 80" descr="area">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId77" tooltip="area"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D56587C7-B646-43CF-88CD-EC709CEA4C95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId78">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2222500" y="32137350"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="72" name="Obraz 71">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId71"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8773F5CA-4976-4BC3-9E1A-A697848CD26F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId72">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3854450" y="39001700"/>
-          <a:ext cx="952500" cy="641350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="73" name="Obraz 72" descr="relation">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId33" tooltip="relation"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3814530B-6BA1-4EFB-8F55-2D1C99EF9913}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2025650" y="40036750"/>
-          <a:ext cx="190500" cy="190500"/>
+        <xdr:cNvPr id="82" name="Obraz 81">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId79"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91D686B8-62C7-4EC2-B88D-80FD830D9390}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId80">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4959350" y="32137350"/>
+          <a:ext cx="266700" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5684,294 +6236,46 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="74" name="Obraz 73">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId61"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE4CC805-4D8A-46F9-AC89-D21449EB7868}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3854450" y="40036750"/>
-          <a:ext cx="952500" cy="717550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>88</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="75" name="Obraz 74" descr="relation">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId33" tooltip="relation"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E99A6535-081A-45FE-96C3-9FCD5A244217}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2025650" y="40595550"/>
-          <a:ext cx="190500" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="76" name="Obraz 75">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId73"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B31BD658-43EC-46F1-AF0F-6524C9CC6641}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId74">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3854450" y="40595550"/>
-          <a:ext cx="952500" cy="704850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="77" name="Obraz 76" descr="relation">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId33" tooltip="relation"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFCC4370-D1D6-440A-AA1C-21E79F04B9B0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2025650" y="41751250"/>
-          <a:ext cx="190500" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>90</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>952500</xdr:colOff>
       <xdr:row>93</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="78" name="Obraz 77">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId75"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A4BA980-C0F2-4CE0-9B61-323471B1FC99}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId76">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3854450" y="41751250"/>
-          <a:ext cx="952500" cy="698500"/>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="83" name="Obraz 82">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId81"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15FA8DB3-89E2-4266-853E-13724EB72A11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId82">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5568950" y="32137350"/>
+          <a:ext cx="952500" cy="1022350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6005,73 +6309,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="79" name="Obraz 78" descr="relation">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId33" tooltip="relation"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{160014E3-8863-4BC4-9D24-A3FF63FBA727}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2025650" y="42310050"/>
-          <a:ext cx="190500" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="80" name="Obraz 79" descr="node">
+        <xdr:cNvPr id="84" name="Obraz 83" descr="node">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27" tooltip="node"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A1AE1F4-45D4-4001-96BB-788940E52143}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D78AEC69-4779-482D-91CA-B4BB072E1B0F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6094,7 +6336,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2025650" y="32137350"/>
+          <a:off x="2025650" y="33064450"/>
           <a:ext cx="190500" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6123,17 +6365,17 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
+      <xdr:colOff>387350</xdr:colOff>
       <xdr:row>94</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="81" name="Obraz 80" descr="area">
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="85" name="Obraz 84" descr="area">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId77" tooltip="area"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D56587C7-B646-43CF-88CD-EC709CEA4C95}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAF1AC9B-6E16-4198-AB71-0DFC2DB5DCA6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6156,7 +6398,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2222500" y="32137350"/>
+          <a:off x="2222500" y="33064450"/>
           <a:ext cx="190500" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6187,38 +6429,38 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
       <xdr:row>94</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="82" name="Obraz 81">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId79"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91D686B8-62C7-4EC2-B88D-80FD830D9390}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId80">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4959350" y="32137350"/>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="86" name="Obraz 85">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId83"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD746287-B6B1-412D-8196-1A428FCD834F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId84">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4959350" y="33064450"/>
           <a:ext cx="266700" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6248,40 +6490,40 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="83" name="Obraz 82">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId81"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15FA8DB3-89E2-4266-853E-13724EB72A11}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId82">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5568950" y="32137350"/>
-          <a:ext cx="952500" cy="1022350"/>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="87" name="Obraz 86">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId85"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6D546B7-B4F8-440C-AA4C-43CF330AB745}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId86">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5568950" y="33064450"/>
+          <a:ext cx="952500" cy="1428750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6304,22 +6546,22 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="84" name="Obraz 83" descr="node">
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="88" name="Obraz 87" descr="node">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27" tooltip="node"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D78AEC69-4779-482D-91CA-B4BB072E1B0F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D315D50-F06E-49EA-86C9-3DE12A83BA0B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6342,7 +6584,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2025650" y="33064450"/>
+          <a:off x="2025650" y="34359850"/>
           <a:ext cx="190500" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6366,22 +6608,22 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>196850</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="85" name="Obraz 84" descr="area">
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>387350</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="89" name="Obraz 88" descr="area">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId77" tooltip="area"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAF1AC9B-6E16-4198-AB71-0DFC2DB5DCA6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2D6459B-38C1-4ED2-917B-5C9221EF8960}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6404,7 +6646,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2222500" y="33064450"/>
+          <a:off x="2222500" y="34359850"/>
           <a:ext cx="190500" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6428,45 +6670,45 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="86" name="Obraz 85">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId83"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD746287-B6B1-412D-8196-1A428FCD834F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId84">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4959350" y="33064450"/>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="90" name="Obraz 89">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId87"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFF00503-7ABE-430C-AC4F-7640F746D48C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId88">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4959350" y="34359850"/>
           <a:ext cx="266700" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6490,46 +6732,46 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="87" name="Obraz 86">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId85"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6D546B7-B4F8-440C-AA4C-43CF330AB745}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId86">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5568950" y="33064450"/>
-          <a:ext cx="952500" cy="1428750"/>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="91" name="Obraz 90">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId89"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09D6A01F-7859-4090-B819-9B7B9FA79B69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId90">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5568950" y="34359850"/>
+          <a:ext cx="952500" cy="1308100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6552,22 +6794,22 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="88" name="Obraz 87" descr="node">
+        <xdr:cNvPr id="92" name="Obraz 91" descr="node">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27" tooltip="node"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D315D50-F06E-49EA-86C9-3DE12A83BA0B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C4D846A-97DD-40DE-9752-CFD53835B302}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6590,7 +6832,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2025650" y="34359850"/>
+          <a:off x="2025650" y="35509200"/>
           <a:ext cx="190500" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6612,24 +6854,210 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="93" name="Obraz 92">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId91"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00D9D8C9-3377-4DE0-B334-6F1308B5ECC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId92">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6273800" y="35509200"/>
+          <a:ext cx="952500" cy="736600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="94" name="Obraz 93" descr="node">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27" tooltip="node"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EF7548F-E9FC-4B9E-9299-0AAADD66CFBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2025650" y="36385500"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>196850</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="89" name="Obraz 88" descr="area">
+        <xdr:cNvPr id="95" name="Obraz 94" descr="way">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="way"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29678ED0-BD18-4FFE-B04C-D12DB12D954D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2222500" y="36385500"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="96" name="Obraz 95" descr="area">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId77" tooltip="area"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2D6459B-38C1-4ED2-917B-5C9221EF8960}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54660F0D-CAAE-495A-984A-212B7A7CD936}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6652,7 +7080,565 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2222500" y="34359850"/>
+          <a:off x="2419350" y="36385500"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="97" name="Obraz 96">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId93"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43EF7EDC-D8A1-49F5-AC0B-F4D605715A60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId94">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6273800" y="36385500"/>
+          <a:ext cx="952500" cy="641350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="98" name="Obraz 97" descr="way">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="way"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD49CD39-F6A4-48E8-B440-D6067CDB3FD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2025650" y="36957000"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="99" name="Obraz 98" descr="area">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId77" tooltip="area"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10F4E38C-5E50-4C96-A0A3-A0EB4671E4DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId78">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2222500" y="36957000"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="100" name="Obraz 99">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId93"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0295D27E-9737-47B4-9E43-C7B11EECA647}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId94">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6273800" y="36957000"/>
+          <a:ext cx="952500" cy="641350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="101" name="Obraz 100" descr="node">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27" tooltip="node"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA222BB0-A850-4025-9F54-193DD027636F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2025650" y="37649150"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="102" name="Obraz 101" descr="area">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId77" tooltip="area"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{663225BF-5499-47D5-B963-17F241FC7856}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId78">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2222500" y="37649150"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="103" name="Obraz 102">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId95"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F1ABC4E-0565-40B6-9BC7-FD2CBE7931A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId96">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6273800" y="37649150"/>
+          <a:ext cx="952500" cy="717550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="104" name="Obraz 103" descr="node">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27" tooltip="node"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1504E7C5-52B6-4459-A0DD-17C501C228A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2025650" y="38207950"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="105" name="Obraz 104" descr="area">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId77" tooltip="area"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD7BA153-D03A-4370-8BB7-A47F3D974785}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId78">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2222500" y="38207950"/>
           <a:ext cx="190500" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6676,46 +7662,46 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="90" name="Obraz 89">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId87"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFF00503-7ABE-430C-AC4F-7640F746D48C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId88">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4959350" y="34359850"/>
-          <a:ext cx="266700" cy="266700"/>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="106" name="Obraz 105">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId97"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB1F03FF-1958-4255-B934-43372C765601}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId98">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4959350" y="38207950"/>
+          <a:ext cx="57150" cy="57150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6738,108 +7724,170 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="107" name="Obraz 106">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId95"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFAD2BA7-5280-4EC5-805B-E90BA13B7C21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId96">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6273800" y="38207950"/>
+          <a:ext cx="952500" cy="717550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="91" name="Obraz 90">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId89"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09D6A01F-7859-4090-B819-9B7B9FA79B69}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId90">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5568950" y="34359850"/>
-          <a:ext cx="952500" cy="1308100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
+        <xdr:cNvPr id="108" name="Obraz 107" descr="node">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27" tooltip="node"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC2ABFB4-0513-4F7E-A928-39525B45FFB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2025650" y="38766750"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="92" name="Obraz 91" descr="node">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27" tooltip="node"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C4D846A-97DD-40DE-9752-CFD53835B302}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2025650" y="35509200"/>
-          <a:ext cx="190500" cy="190500"/>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="109" name="Obraz 108">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId99"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42621AB5-2E09-433A-9047-FEAB34C844E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId100">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4959350" y="38766750"/>
+          <a:ext cx="114300" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6862,666 +7910,46 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>115</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="93" name="Obraz 92">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId91"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00D9D8C9-3377-4DE0-B334-6F1308B5ECC4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId92">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6273800" y="35509200"/>
-          <a:ext cx="952500" cy="736600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>116</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="94" name="Obraz 93" descr="node">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27" tooltip="node"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EF7548F-E9FC-4B9E-9299-0AAADD66CFBE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2025650" y="36385500"/>
-          <a:ext cx="190500" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>196850</xdr:colOff>
-      <xdr:row>116</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="95" name="Obraz 94" descr="way">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="way"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29678ED0-BD18-4FFE-B04C-D12DB12D954D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2222500" y="36385500"/>
-          <a:ext cx="190500" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>116</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>577850</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="96" name="Obraz 95" descr="area">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId77" tooltip="area"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54660F0D-CAAE-495A-984A-212B7A7CD936}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId78">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2419350" y="36385500"/>
-          <a:ext cx="190500" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>116</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="97" name="Obraz 96">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId93"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43EF7EDC-D8A1-49F5-AC0B-F4D605715A60}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId94">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6273800" y="36385500"/>
-          <a:ext cx="952500" cy="641350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>120</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="98" name="Obraz 97" descr="way">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="way"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD49CD39-F6A4-48E8-B440-D6067CDB3FD3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2025650" y="36957000"/>
-          <a:ext cx="190500" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>196850</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
-      <xdr:row>120</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="99" name="Obraz 98" descr="area">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId77" tooltip="area"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10F4E38C-5E50-4C96-A0A3-A0EB4671E4DB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId78">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2222500" y="36957000"/>
-          <a:ext cx="190500" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="100" name="Obraz 99">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId93"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0295D27E-9737-47B4-9E43-C7B11EECA647}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId94">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6273800" y="36957000"/>
-          <a:ext cx="952500" cy="641350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>123</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="101" name="Obraz 100" descr="node">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27" tooltip="node"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA222BB0-A850-4025-9F54-193DD027636F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2025650" y="37649150"/>
-          <a:ext cx="190500" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>196850</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
-      <xdr:row>123</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="102" name="Obraz 101" descr="area">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId77" tooltip="area"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{663225BF-5499-47D5-B963-17F241FC7856}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId78">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2222500" y="37649150"/>
-          <a:ext cx="190500" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>122</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>952500</xdr:colOff>
       <xdr:row>125</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="103" name="Obraz 102">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId95"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F1ABC4E-0565-40B6-9BC7-FD2CBE7931A8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId96">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6273800" y="37649150"/>
-          <a:ext cx="952500" cy="717550"/>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="110" name="Obraz 109">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId101"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53C94419-3437-4FEF-8CB8-933B7CA3F143}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId102">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6273800" y="38766750"/>
+          <a:ext cx="952500" cy="552450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7544,22 +7972,22 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>126</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="104" name="Obraz 103" descr="node">
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="111" name="Obraz 110" descr="node">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27" tooltip="node"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1504E7C5-52B6-4459-A0DD-17C501C228A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92D6F0C3-F4DD-4276-8739-6CAD42113324}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7582,69 +8010,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2025650" y="38207950"/>
-          <a:ext cx="190500" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>196850</xdr:colOff>
-      <xdr:row>125</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
-      <xdr:row>126</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="105" name="Obraz 104" descr="area">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId77" tooltip="area"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD7BA153-D03A-4370-8BB7-A47F3D974785}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId78">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2222500" y="38207950"/>
+          <a:off x="2025650" y="39325550"/>
           <a:ext cx="190500" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7668,22 +8034,22 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="106" name="Obraz 105">
+        <xdr:cNvPr id="112" name="Obraz 111">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId97"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB1F03FF-1958-4255-B934-43372C765601}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A500AFD8-C566-4439-AB2F-F7941A867340}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7706,7 +8072,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4959350" y="38207950"/>
+          <a:off x="4959350" y="39325550"/>
           <a:ext cx="57150" cy="57150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7730,386 +8096,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>128</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="107" name="Obraz 106">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId95"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFAD2BA7-5280-4EC5-805B-E90BA13B7C21}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId96">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6273800" y="38207950"/>
-          <a:ext cx="952500" cy="717550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>128</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>129</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="108" name="Obraz 107" descr="node">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27" tooltip="node"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC2ABFB4-0513-4F7E-A928-39525B45FFB0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2025650" y="38766750"/>
-          <a:ext cx="190500" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>128</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>128</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="109" name="Obraz 108">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId99"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42621AB5-2E09-433A-9047-FEAB34C844E7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId100">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4959350" y="38766750"/>
-          <a:ext cx="114300" cy="114300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>128</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>130</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="110" name="Obraz 109">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId101"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53C94419-3437-4FEF-8CB8-933B7CA3F143}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId102">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6273800" y="38766750"/>
-          <a:ext cx="952500" cy="552450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>131</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>132</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="111" name="Obraz 110" descr="node">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27" tooltip="node"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92D6F0C3-F4DD-4276-8739-6CAD42113324}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2025650" y="39325550"/>
-          <a:ext cx="190500" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>131</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>131</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="112" name="Obraz 111">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId97"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A500AFD8-C566-4439-AB2F-F7941A867340}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId98">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4959350" y="39325550"/>
-          <a:ext cx="57150" cy="57150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>131</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>134</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8460,1463 +8454,1399 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0850A5C5-D1E8-49B2-B724-518CEAB91928}">
-  <dimension ref="A1:G134"/>
+  <dimension ref="A1:G129"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L63" sqref="L63"/>
+      <selection activeCell="J72" sqref="J72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.08984375" style="21" customWidth="1"/>
+    <col min="1" max="1" width="17.08984375" style="3" customWidth="1"/>
     <col min="2" max="2" width="15.7265625" customWidth="1"/>
-    <col min="4" max="4" width="33.26953125" style="28" customWidth="1"/>
+    <col min="4" max="4" width="33.26953125" style="4" customWidth="1"/>
     <col min="5" max="5" width="18.81640625" customWidth="1"/>
     <col min="6" max="6" width="17.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="D1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="E1" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="F1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="29" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="7"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="7"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="8"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="21"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="7"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="8"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="21"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="7"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="7"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="7"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="7"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="8"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="21"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="7"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="7"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="7"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="8"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="21"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="7"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="8"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="21"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="7"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="8"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="21"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="7"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="8"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="12"/>
+      <c r="D29" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" s="21"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="7"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="8"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="12"/>
+      <c r="D32" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="21"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="7"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="8"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="12"/>
+      <c r="D35" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" s="21"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="7"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="8"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="12"/>
+      <c r="D38" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="21"/>
+      <c r="F38" s="24"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="7"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="25"/>
+    </row>
+    <row r="40" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="8"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="26"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="12"/>
+      <c r="D41" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" s="21"/>
+      <c r="F41" s="18"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="7"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="19"/>
+    </row>
+    <row r="43" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="8"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="20"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" s="12"/>
+      <c r="D44" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="7"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="7"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+    </row>
+    <row r="47" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="8"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" s="12"/>
+      <c r="D48" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E48" s="21"/>
+      <c r="F48" s="18"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" s="7"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="19"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="7"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="19"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" s="7"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="19"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" s="7"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="19"/>
+    </row>
+    <row r="53" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="8"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="20"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54" s="12"/>
+      <c r="D54" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="E54" s="21"/>
+      <c r="F54" s="18"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" s="7"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="19"/>
+    </row>
+    <row r="56" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="8"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="20"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C57" s="12"/>
+      <c r="D57" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E57" s="21"/>
+      <c r="F57" s="18"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" s="7"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="19"/>
+    </row>
+    <row r="59" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="8"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="20"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C60" s="12"/>
+      <c r="D60" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E60" s="21"/>
+      <c r="F60" s="18"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" s="7"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="19"/>
+    </row>
+    <row r="62" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="8"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="20"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C63" s="12"/>
+      <c r="D63" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="E63" s="21"/>
+      <c r="F63" s="18"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" s="7"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="31"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="19"/>
+    </row>
+    <row r="65" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="8"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="20"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C66" s="12"/>
+      <c r="D66" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E66" s="21"/>
+      <c r="F66" s="18"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67" s="7"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="28"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="19"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68" s="7"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="19"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" s="7"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="28"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="19"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70" s="7"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="28"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="19"/>
+    </row>
+    <row r="71" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="8"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="29"/>
+      <c r="E71" s="23"/>
+      <c r="F71" s="20"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C72" s="12"/>
+      <c r="D72" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E72" s="21"/>
+      <c r="F72" s="18"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73" s="7"/>
+      <c r="B73" s="10"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="28"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="19"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74" s="7"/>
+      <c r="B74" s="10"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="28"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="19"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75" s="7"/>
+      <c r="B75" s="10"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="28"/>
+      <c r="E75" s="22"/>
+      <c r="F75" s="19"/>
+    </row>
+    <row r="76" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A76" s="8"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="29"/>
+      <c r="E76" s="23"/>
+      <c r="F76" s="20"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A77" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C77" s="12"/>
+      <c r="D77" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="E77" s="21"/>
+      <c r="F77" s="18"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A78" s="7"/>
+      <c r="B78" s="10"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="31"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="19"/>
+    </row>
+    <row r="79" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="8"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="32"/>
+      <c r="E79" s="23"/>
+      <c r="F79" s="20"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A80" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C80" s="12"/>
+      <c r="D80" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E80" s="21"/>
+      <c r="F80" s="18"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A81" s="7"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="28"/>
+      <c r="E81" s="22"/>
+      <c r="F81" s="19"/>
+    </row>
+    <row r="82" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A82" s="8"/>
+      <c r="B82" s="11"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="29"/>
+      <c r="E82" s="23"/>
+      <c r="F82" s="20"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A83" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C83" s="12"/>
+      <c r="D83" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="E83" s="21"/>
+      <c r="F83" s="18"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A84" s="7"/>
+      <c r="B84" s="10"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="31"/>
+      <c r="E84" s="22"/>
+      <c r="F84" s="19"/>
+    </row>
+    <row r="85" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A85" s="8"/>
+      <c r="B85" s="11"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="32"/>
+      <c r="E85" s="23"/>
+      <c r="F85" s="20"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A86" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C86" s="12"/>
+      <c r="D86" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E86" s="21"/>
+      <c r="F86" s="18"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87" s="7"/>
+      <c r="B87" s="10"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="28"/>
+      <c r="E87" s="22"/>
+      <c r="F87" s="19"/>
+    </row>
+    <row r="88" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A88" s="8"/>
+      <c r="B88" s="11"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="29"/>
+      <c r="E88" s="23"/>
+      <c r="F88" s="20"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="B89" s="9" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="19"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="19"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="20"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="19"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="20"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="19"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="19"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="19"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="19"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="20"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="19"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="19"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="19"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="20"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="19"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="20"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="19"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="20"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="19"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="20"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="19"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="20"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" s="9"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="19"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="20"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="E35" s="9"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="19"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="20"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="2"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="E38" s="9"/>
-      <c r="F38" s="15"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="19"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="16"/>
-    </row>
-    <row r="40" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="20"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="17"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C41" s="6"/>
-      <c r="D41" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E41" s="9"/>
-      <c r="F41" s="12"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="19"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="13"/>
-    </row>
-    <row r="43" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="20"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="14"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C44" s="6"/>
-      <c r="D44" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="19"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46" s="19"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-    </row>
-    <row r="47" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="20"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C48" s="6"/>
-      <c r="D48" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="E48" s="9"/>
-      <c r="F48" s="12"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" s="19"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="13"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A50" s="19"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="13"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" s="19"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="13"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" s="19"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="13"/>
-    </row>
-    <row r="53" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="20"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="24"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="14"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C54" s="6"/>
-      <c r="D54" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="E54" s="9"/>
-      <c r="F54" s="12"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" s="19"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="13"/>
-    </row>
-    <row r="56" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="20"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="14"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C57" s="6"/>
-      <c r="D57" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E57" s="9"/>
-      <c r="F57" s="12"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58" s="19"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="13"/>
-    </row>
-    <row r="59" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="20"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="24"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="14"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A60" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C60" s="6"/>
-      <c r="D60" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E60" s="9"/>
-      <c r="F60" s="12"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A61" s="19"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="13"/>
-    </row>
-    <row r="62" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="20"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="27"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="14"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A63" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B63" s="3" t="s">
+      <c r="C89" s="21"/>
+      <c r="D89" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E89" s="18"/>
+      <c r="F89" s="18"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A90" s="7"/>
+      <c r="B90" s="10"/>
+      <c r="C90" s="22"/>
+      <c r="D90" s="16"/>
+      <c r="E90" s="19"/>
+      <c r="F90" s="19"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A91" s="7"/>
+      <c r="B91" s="10"/>
+      <c r="C91" s="22"/>
+      <c r="D91" s="16"/>
+      <c r="E91" s="19"/>
+      <c r="F91" s="19"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A92" s="7"/>
+      <c r="B92" s="10"/>
+      <c r="C92" s="22"/>
+      <c r="D92" s="16"/>
+      <c r="E92" s="19"/>
+      <c r="F92" s="19"/>
+    </row>
+    <row r="93" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A93" s="8"/>
+      <c r="B93" s="11"/>
+      <c r="C93" s="23"/>
+      <c r="D93" s="17"/>
+      <c r="E93" s="20"/>
+      <c r="F93" s="20"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A94" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C94" s="21"/>
+      <c r="D94" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E94" s="18"/>
+      <c r="F94" s="18"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A95" s="7"/>
+      <c r="B95" s="10"/>
+      <c r="C95" s="22"/>
+      <c r="D95" s="16"/>
+      <c r="E95" s="19"/>
+      <c r="F95" s="19"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A96" s="7"/>
+      <c r="B96" s="10"/>
+      <c r="C96" s="22"/>
+      <c r="D96" s="16"/>
+      <c r="E96" s="19"/>
+      <c r="F96" s="19"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A97" s="7"/>
+      <c r="B97" s="10"/>
+      <c r="C97" s="22"/>
+      <c r="D97" s="16"/>
+      <c r="E97" s="19"/>
+      <c r="F97" s="19"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A98" s="7"/>
+      <c r="B98" s="10"/>
+      <c r="C98" s="22"/>
+      <c r="D98" s="16"/>
+      <c r="E98" s="19"/>
+      <c r="F98" s="19"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A99" s="7"/>
+      <c r="B99" s="10"/>
+      <c r="C99" s="22"/>
+      <c r="D99" s="16"/>
+      <c r="E99" s="19"/>
+      <c r="F99" s="19"/>
+    </row>
+    <row r="100" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A100" s="8"/>
+      <c r="B100" s="11"/>
+      <c r="C100" s="23"/>
+      <c r="D100" s="17"/>
+      <c r="E100" s="20"/>
+      <c r="F100" s="20"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A101" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C101" s="21"/>
+      <c r="D101" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E101" s="18"/>
+      <c r="F101" s="24"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A102" s="7"/>
+      <c r="B102" s="10"/>
+      <c r="C102" s="22"/>
+      <c r="D102" s="16"/>
+      <c r="E102" s="19"/>
+      <c r="F102" s="25"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A103" s="7"/>
+      <c r="B103" s="10"/>
+      <c r="C103" s="22"/>
+      <c r="D103" s="16"/>
+      <c r="E103" s="19"/>
+      <c r="F103" s="25"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A104" s="7"/>
+      <c r="B104" s="10"/>
+      <c r="C104" s="22"/>
+      <c r="D104" s="16"/>
+      <c r="E104" s="19"/>
+      <c r="F104" s="25"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A105" s="7"/>
+      <c r="B105" s="10"/>
+      <c r="C105" s="22"/>
+      <c r="D105" s="16"/>
+      <c r="E105" s="19"/>
+      <c r="F105" s="25"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A106" s="7"/>
+      <c r="B106" s="10"/>
+      <c r="C106" s="22"/>
+      <c r="D106" s="16"/>
+      <c r="E106" s="19"/>
+      <c r="F106" s="25"/>
+    </row>
+    <row r="107" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A107" s="8"/>
+      <c r="B107" s="11"/>
+      <c r="C107" s="23"/>
+      <c r="D107" s="17"/>
+      <c r="E107" s="20"/>
+      <c r="F107" s="26"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A108" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C108" s="12"/>
+      <c r="D108" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E108" s="21"/>
+      <c r="F108" s="18"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A109" s="7"/>
+      <c r="B109" s="10"/>
+      <c r="C109" s="13"/>
+      <c r="D109" s="16"/>
+      <c r="E109" s="22"/>
+      <c r="F109" s="19"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A110" s="7"/>
+      <c r="B110" s="10"/>
+      <c r="C110" s="13"/>
+      <c r="D110" s="16"/>
+      <c r="E110" s="22"/>
+      <c r="F110" s="19"/>
+    </row>
+    <row r="111" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A111" s="8"/>
+      <c r="B111" s="11"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="17"/>
+      <c r="E111" s="23"/>
+      <c r="F111" s="20"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A112" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C112" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D112" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E112" s="21"/>
+      <c r="F112" s="18"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A113" s="7"/>
+      <c r="B113" s="10"/>
+      <c r="C113" s="22"/>
+      <c r="D113" s="16"/>
+      <c r="E113" s="22"/>
+      <c r="F113" s="19"/>
+    </row>
+    <row r="114" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A114" s="8"/>
+      <c r="B114" s="11"/>
+      <c r="C114" s="23"/>
+      <c r="D114" s="17"/>
+      <c r="E114" s="23"/>
+      <c r="F114" s="20"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A115" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C63" s="9"/>
-      <c r="D63" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="E63" s="9"/>
-      <c r="F63" s="12"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A64" s="19"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="23"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="13"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A65" s="19"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="23"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="13"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A66" s="19"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="23"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="13"/>
-    </row>
-    <row r="67" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="20"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="24"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="14"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A68" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C68" s="6"/>
-      <c r="D68" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="E68" s="9"/>
-      <c r="F68" s="12"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A69" s="19"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="13"/>
-    </row>
-    <row r="70" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="20"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="27"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="14"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A71" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C71" s="6"/>
-      <c r="D71" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="E71" s="9"/>
-      <c r="F71" s="12"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A72" s="19"/>
-      <c r="B72" s="4"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="23"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="13"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A73" s="19"/>
-      <c r="B73" s="4"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="23"/>
-      <c r="E73" s="10"/>
-      <c r="F73" s="13"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A74" s="19"/>
-      <c r="B74" s="4"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="23"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="13"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A75" s="19"/>
-      <c r="B75" s="4"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="23"/>
-      <c r="E75" s="10"/>
-      <c r="F75" s="13"/>
-    </row>
-    <row r="76" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="20"/>
-      <c r="B76" s="5"/>
-      <c r="C76" s="8"/>
-      <c r="D76" s="24"/>
-      <c r="E76" s="11"/>
-      <c r="F76" s="14"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A77" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C77" s="6"/>
-      <c r="D77" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="E77" s="9"/>
-      <c r="F77" s="12"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A78" s="19"/>
-      <c r="B78" s="4"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="23"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="13"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A79" s="19"/>
-      <c r="B79" s="4"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="23"/>
-      <c r="E79" s="10"/>
-      <c r="F79" s="13"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A80" s="19"/>
-      <c r="B80" s="4"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="23"/>
-      <c r="E80" s="10"/>
-      <c r="F80" s="13"/>
-    </row>
-    <row r="81" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="20"/>
-      <c r="B81" s="5"/>
-      <c r="C81" s="8"/>
-      <c r="D81" s="24"/>
-      <c r="E81" s="11"/>
-      <c r="F81" s="14"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A82" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C82" s="6"/>
-      <c r="D82" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="E82" s="9"/>
-      <c r="F82" s="12"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A83" s="19"/>
-      <c r="B83" s="4"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="26"/>
-      <c r="E83" s="10"/>
-      <c r="F83" s="13"/>
-    </row>
-    <row r="84" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A84" s="20"/>
-      <c r="B84" s="5"/>
-      <c r="C84" s="8"/>
-      <c r="D84" s="27"/>
-      <c r="E84" s="11"/>
-      <c r="F84" s="14"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A85" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C85" s="6"/>
-      <c r="D85" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="E85" s="9"/>
-      <c r="F85" s="12"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A86" s="19"/>
-      <c r="B86" s="4"/>
-      <c r="C86" s="7"/>
-      <c r="D86" s="23"/>
-      <c r="E86" s="10"/>
-      <c r="F86" s="13"/>
-    </row>
-    <row r="87" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A87" s="20"/>
-      <c r="B87" s="5"/>
-      <c r="C87" s="8"/>
-      <c r="D87" s="24"/>
-      <c r="E87" s="11"/>
-      <c r="F87" s="14"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A88" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C88" s="6"/>
-      <c r="D88" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="E88" s="9"/>
-      <c r="F88" s="12"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A89" s="19"/>
-      <c r="B89" s="4"/>
-      <c r="C89" s="7"/>
-      <c r="D89" s="26"/>
-      <c r="E89" s="10"/>
-      <c r="F89" s="13"/>
-    </row>
-    <row r="90" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="20"/>
-      <c r="B90" s="5"/>
-      <c r="C90" s="8"/>
-      <c r="D90" s="27"/>
-      <c r="E90" s="11"/>
-      <c r="F90" s="14"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A91" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C91" s="6"/>
-      <c r="D91" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="E91" s="9"/>
-      <c r="F91" s="12"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A92" s="19"/>
-      <c r="B92" s="4"/>
-      <c r="C92" s="7"/>
-      <c r="D92" s="23"/>
-      <c r="E92" s="10"/>
-      <c r="F92" s="13"/>
-    </row>
-    <row r="93" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A93" s="20"/>
-      <c r="B93" s="5"/>
-      <c r="C93" s="8"/>
-      <c r="D93" s="24"/>
-      <c r="E93" s="11"/>
-      <c r="F93" s="14"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A94" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C94" s="9"/>
-      <c r="D94" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="E94" s="12"/>
-      <c r="F94" s="12"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A95" s="19"/>
-      <c r="B95" s="4"/>
-      <c r="C95" s="10"/>
-      <c r="D95" s="31"/>
-      <c r="E95" s="13"/>
-      <c r="F95" s="13"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A96" s="19"/>
-      <c r="B96" s="4"/>
-      <c r="C96" s="10"/>
-      <c r="D96" s="31"/>
-      <c r="E96" s="13"/>
-      <c r="F96" s="13"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A97" s="19"/>
-      <c r="B97" s="4"/>
-      <c r="C97" s="10"/>
-      <c r="D97" s="31"/>
-      <c r="E97" s="13"/>
-      <c r="F97" s="13"/>
-    </row>
-    <row r="98" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A98" s="20"/>
-      <c r="B98" s="5"/>
-      <c r="C98" s="11"/>
-      <c r="D98" s="32"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A99" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C99" s="9"/>
-      <c r="D99" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E99" s="12"/>
-      <c r="F99" s="12"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A100" s="19"/>
-      <c r="B100" s="4"/>
-      <c r="C100" s="10"/>
-      <c r="D100" s="31"/>
-      <c r="E100" s="13"/>
-      <c r="F100" s="13"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A101" s="19"/>
-      <c r="B101" s="4"/>
-      <c r="C101" s="10"/>
-      <c r="D101" s="31"/>
-      <c r="E101" s="13"/>
-      <c r="F101" s="13"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A102" s="19"/>
-      <c r="B102" s="4"/>
-      <c r="C102" s="10"/>
-      <c r="D102" s="31"/>
-      <c r="E102" s="13"/>
-      <c r="F102" s="13"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A103" s="19"/>
-      <c r="B103" s="4"/>
-      <c r="C103" s="10"/>
-      <c r="D103" s="31"/>
-      <c r="E103" s="13"/>
-      <c r="F103" s="13"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A104" s="19"/>
-      <c r="B104" s="4"/>
-      <c r="C104" s="10"/>
-      <c r="D104" s="31"/>
-      <c r="E104" s="13"/>
-      <c r="F104" s="13"/>
-    </row>
-    <row r="105" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A105" s="20"/>
-      <c r="B105" s="5"/>
-      <c r="C105" s="11"/>
-      <c r="D105" s="32"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A106" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="B106" s="3" t="s">
+      <c r="B115" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C115" s="21"/>
+      <c r="D115" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E115" s="21"/>
+      <c r="F115" s="18"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A116" s="7"/>
+      <c r="B116" s="10"/>
+      <c r="C116" s="22"/>
+      <c r="D116" s="16"/>
+      <c r="E116" s="22"/>
+      <c r="F116" s="19"/>
+    </row>
+    <row r="117" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A117" s="8"/>
+      <c r="B117" s="11"/>
+      <c r="C117" s="23"/>
+      <c r="D117" s="17"/>
+      <c r="E117" s="23"/>
+      <c r="F117" s="20"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A118" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C106" s="9"/>
-      <c r="D106" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="E106" s="12"/>
-      <c r="F106" s="15"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A107" s="19"/>
-      <c r="B107" s="4"/>
-      <c r="C107" s="10"/>
-      <c r="D107" s="31"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="16"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A108" s="19"/>
-      <c r="B108" s="4"/>
-      <c r="C108" s="10"/>
-      <c r="D108" s="31"/>
-      <c r="E108" s="13"/>
-      <c r="F108" s="16"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A109" s="19"/>
-      <c r="B109" s="4"/>
-      <c r="C109" s="10"/>
-      <c r="D109" s="31"/>
-      <c r="E109" s="13"/>
-      <c r="F109" s="16"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A110" s="19"/>
-      <c r="B110" s="4"/>
-      <c r="C110" s="10"/>
-      <c r="D110" s="31"/>
-      <c r="E110" s="13"/>
-      <c r="F110" s="16"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A111" s="19"/>
-      <c r="B111" s="4"/>
-      <c r="C111" s="10"/>
-      <c r="D111" s="31"/>
-      <c r="E111" s="13"/>
-      <c r="F111" s="16"/>
-    </row>
-    <row r="112" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A112" s="20"/>
-      <c r="B112" s="5"/>
-      <c r="C112" s="11"/>
-      <c r="D112" s="32"/>
-      <c r="E112" s="14"/>
-      <c r="F112" s="17"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A113" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C113" s="6"/>
-      <c r="D113" s="30" t="s">
+      <c r="B118" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C118" s="21"/>
+      <c r="D118" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="E113" s="9"/>
-      <c r="F113" s="12"/>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A114" s="19"/>
-      <c r="B114" s="4"/>
-      <c r="C114" s="7"/>
-      <c r="D114" s="31"/>
-      <c r="E114" s="10"/>
-      <c r="F114" s="13"/>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A115" s="19"/>
-      <c r="B115" s="4"/>
-      <c r="C115" s="7"/>
-      <c r="D115" s="31"/>
-      <c r="E115" s="10"/>
-      <c r="F115" s="13"/>
-    </row>
-    <row r="116" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A116" s="20"/>
-      <c r="B116" s="5"/>
-      <c r="C116" s="8"/>
-      <c r="D116" s="32"/>
-      <c r="E116" s="11"/>
-      <c r="F116" s="14"/>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A117" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C117" s="9" t="s">
+      <c r="E118" s="21"/>
+      <c r="F118" s="18"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A119" s="7"/>
+      <c r="B119" s="10"/>
+      <c r="C119" s="22"/>
+      <c r="D119" s="16"/>
+      <c r="E119" s="22"/>
+      <c r="F119" s="19"/>
+    </row>
+    <row r="120" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A120" s="8"/>
+      <c r="B120" s="11"/>
+      <c r="C120" s="23"/>
+      <c r="D120" s="17"/>
+      <c r="E120" s="23"/>
+      <c r="F120" s="20"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A121" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B121" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D117" s="30" t="s">
+      <c r="C121" s="21"/>
+      <c r="D121" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E121" s="18"/>
+      <c r="F121" s="18"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A122" s="7"/>
+      <c r="B122" s="10"/>
+      <c r="C122" s="22"/>
+      <c r="D122" s="16"/>
+      <c r="E122" s="19"/>
+      <c r="F122" s="19"/>
+    </row>
+    <row r="123" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A123" s="8"/>
+      <c r="B123" s="11"/>
+      <c r="C123" s="23"/>
+      <c r="D123" s="17"/>
+      <c r="E123" s="20"/>
+      <c r="F123" s="20"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A124" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B124" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E117" s="9"/>
-      <c r="F117" s="12"/>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A118" s="19"/>
-      <c r="B118" s="4"/>
-      <c r="C118" s="10"/>
-      <c r="D118" s="31"/>
-      <c r="E118" s="10"/>
-      <c r="F118" s="13"/>
-    </row>
-    <row r="119" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A119" s="20"/>
-      <c r="B119" s="5"/>
-      <c r="C119" s="11"/>
-      <c r="D119" s="32"/>
-      <c r="E119" s="11"/>
-      <c r="F119" s="14"/>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A120" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C120" s="9"/>
-      <c r="D120" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="E120" s="9"/>
-      <c r="F120" s="12"/>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A121" s="19"/>
-      <c r="B121" s="4"/>
-      <c r="C121" s="10"/>
-      <c r="D121" s="31"/>
-      <c r="E121" s="10"/>
-      <c r="F121" s="13"/>
-    </row>
-    <row r="122" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A122" s="20"/>
-      <c r="B122" s="5"/>
-      <c r="C122" s="11"/>
-      <c r="D122" s="32"/>
-      <c r="E122" s="11"/>
-      <c r="F122" s="14"/>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A123" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B123" s="3" t="s">
+      <c r="C124" s="12"/>
+      <c r="D124" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C123" s="9"/>
-      <c r="D123" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="E123" s="9"/>
-      <c r="F123" s="12"/>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A124" s="19"/>
-      <c r="B124" s="4"/>
-      <c r="C124" s="10"/>
-      <c r="D124" s="31"/>
-      <c r="E124" s="10"/>
-      <c r="F124" s="13"/>
-    </row>
-    <row r="125" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A125" s="20"/>
-      <c r="B125" s="5"/>
-      <c r="C125" s="11"/>
-      <c r="D125" s="32"/>
-      <c r="E125" s="11"/>
-      <c r="F125" s="14"/>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A126" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C126" s="9"/>
-      <c r="D126" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="E126" s="12"/>
-      <c r="F126" s="12"/>
+      <c r="E124" s="18"/>
+      <c r="F124" s="18"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A125" s="7"/>
+      <c r="B125" s="10"/>
+      <c r="C125" s="13"/>
+      <c r="D125" s="16"/>
+      <c r="E125" s="19"/>
+      <c r="F125" s="19"/>
+    </row>
+    <row r="126" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A126" s="8"/>
+      <c r="B126" s="11"/>
+      <c r="C126" s="14"/>
+      <c r="D126" s="17"/>
+      <c r="E126" s="20"/>
+      <c r="F126" s="20"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A127" s="19"/>
-      <c r="B127" s="4"/>
-      <c r="C127" s="10"/>
-      <c r="D127" s="31"/>
-      <c r="E127" s="13"/>
-      <c r="F127" s="13"/>
-    </row>
-    <row r="128" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A128" s="20"/>
-      <c r="B128" s="5"/>
-      <c r="C128" s="11"/>
-      <c r="D128" s="32"/>
-      <c r="E128" s="14"/>
-      <c r="F128" s="14"/>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A129" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B129" s="3" t="s">
+      <c r="A127" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B127" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C129" s="6"/>
-      <c r="D129" s="30" t="s">
+      <c r="C127" s="12"/>
+      <c r="D127" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="E129" s="12"/>
-      <c r="F129" s="12"/>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A130" s="19"/>
-      <c r="B130" s="4"/>
-      <c r="C130" s="7"/>
-      <c r="D130" s="31"/>
-      <c r="E130" s="13"/>
-      <c r="F130" s="13"/>
-    </row>
-    <row r="131" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A131" s="20"/>
-      <c r="B131" s="5"/>
-      <c r="C131" s="8"/>
-      <c r="D131" s="32"/>
-      <c r="E131" s="14"/>
-      <c r="F131" s="14"/>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A132" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C132" s="6"/>
-      <c r="D132" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="E132" s="12"/>
-      <c r="F132" s="12"/>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A133" s="19"/>
-      <c r="B133" s="4"/>
-      <c r="C133" s="7"/>
-      <c r="D133" s="31"/>
-      <c r="E133" s="13"/>
-      <c r="F133" s="13"/>
-    </row>
-    <row r="134" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A134" s="20"/>
-      <c r="B134" s="5"/>
-      <c r="C134" s="8"/>
-      <c r="D134" s="32"/>
-      <c r="E134" s="14"/>
-      <c r="F134" s="14"/>
+      <c r="E127" s="18"/>
+      <c r="F127" s="18"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A128" s="7"/>
+      <c r="B128" s="10"/>
+      <c r="C128" s="13"/>
+      <c r="D128" s="16"/>
+      <c r="E128" s="19"/>
+      <c r="F128" s="19"/>
+    </row>
+    <row r="129" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A129" s="8"/>
+      <c r="B129" s="11"/>
+      <c r="C129" s="14"/>
+      <c r="D129" s="17"/>
+      <c r="E129" s="20"/>
+      <c r="F129" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="210">
-    <mergeCell ref="A132:A134"/>
-    <mergeCell ref="B132:B134"/>
-    <mergeCell ref="C132:C134"/>
-    <mergeCell ref="D132:D134"/>
-    <mergeCell ref="E132:E134"/>
-    <mergeCell ref="F132:F134"/>
-    <mergeCell ref="A129:A131"/>
-    <mergeCell ref="B129:B131"/>
-    <mergeCell ref="C129:C131"/>
-    <mergeCell ref="D129:D131"/>
-    <mergeCell ref="E129:E131"/>
-    <mergeCell ref="F129:F131"/>
-    <mergeCell ref="A126:A128"/>
-    <mergeCell ref="B126:B128"/>
-    <mergeCell ref="C126:C128"/>
-    <mergeCell ref="D126:D128"/>
-    <mergeCell ref="E126:E128"/>
-    <mergeCell ref="F126:F128"/>
-    <mergeCell ref="A123:A125"/>
-    <mergeCell ref="B123:B125"/>
-    <mergeCell ref="C123:C125"/>
-    <mergeCell ref="D123:D125"/>
-    <mergeCell ref="E123:E125"/>
-    <mergeCell ref="F123:F125"/>
-    <mergeCell ref="A120:A122"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="C120:C122"/>
-    <mergeCell ref="D120:D122"/>
-    <mergeCell ref="E120:E122"/>
-    <mergeCell ref="F120:F122"/>
-    <mergeCell ref="A117:A119"/>
-    <mergeCell ref="B117:B119"/>
-    <mergeCell ref="C117:C119"/>
-    <mergeCell ref="D117:D119"/>
-    <mergeCell ref="E117:E119"/>
-    <mergeCell ref="F117:F119"/>
-    <mergeCell ref="A113:A116"/>
-    <mergeCell ref="B113:B116"/>
-    <mergeCell ref="C113:C116"/>
-    <mergeCell ref="D113:D116"/>
-    <mergeCell ref="E113:E116"/>
-    <mergeCell ref="F113:F116"/>
-    <mergeCell ref="A106:A112"/>
-    <mergeCell ref="B106:B112"/>
-    <mergeCell ref="C106:C112"/>
-    <mergeCell ref="D106:D112"/>
-    <mergeCell ref="E106:E112"/>
-    <mergeCell ref="F106:F112"/>
-    <mergeCell ref="A99:A105"/>
-    <mergeCell ref="B99:B105"/>
-    <mergeCell ref="C99:C105"/>
-    <mergeCell ref="D99:D105"/>
-    <mergeCell ref="E99:E105"/>
-    <mergeCell ref="F99:F105"/>
-    <mergeCell ref="A94:A98"/>
-    <mergeCell ref="B94:B98"/>
-    <mergeCell ref="C94:C98"/>
-    <mergeCell ref="D94:D98"/>
-    <mergeCell ref="E94:E98"/>
-    <mergeCell ref="F94:F98"/>
-    <mergeCell ref="A91:A93"/>
-    <mergeCell ref="B91:B93"/>
-    <mergeCell ref="C91:C93"/>
-    <mergeCell ref="D91:D93"/>
-    <mergeCell ref="E91:E93"/>
-    <mergeCell ref="F91:F93"/>
-    <mergeCell ref="A88:A90"/>
-    <mergeCell ref="B88:B90"/>
-    <mergeCell ref="C88:C90"/>
-    <mergeCell ref="D88:D90"/>
-    <mergeCell ref="E88:E90"/>
-    <mergeCell ref="F88:F90"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="B85:B87"/>
-    <mergeCell ref="C85:C87"/>
-    <mergeCell ref="D85:D87"/>
-    <mergeCell ref="E85:E87"/>
-    <mergeCell ref="F85:F87"/>
-    <mergeCell ref="A82:A84"/>
-    <mergeCell ref="B82:B84"/>
-    <mergeCell ref="C82:C84"/>
-    <mergeCell ref="D82:D84"/>
-    <mergeCell ref="E82:E84"/>
-    <mergeCell ref="F82:F84"/>
-    <mergeCell ref="A77:A81"/>
-    <mergeCell ref="B77:B81"/>
-    <mergeCell ref="C77:C81"/>
-    <mergeCell ref="D77:D81"/>
-    <mergeCell ref="E77:E81"/>
-    <mergeCell ref="F77:F81"/>
-    <mergeCell ref="A71:A76"/>
-    <mergeCell ref="B71:B76"/>
-    <mergeCell ref="C71:C76"/>
-    <mergeCell ref="D71:D76"/>
-    <mergeCell ref="E71:E76"/>
-    <mergeCell ref="F71:F76"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="D68:D70"/>
-    <mergeCell ref="E68:E70"/>
-    <mergeCell ref="F68:F70"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="C63:C67"/>
-    <mergeCell ref="D63:D67"/>
-    <mergeCell ref="E63:E67"/>
-    <mergeCell ref="F63:F67"/>
+  <mergeCells count="204">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="C9:C14"/>
+    <mergeCell ref="D9:D14"/>
+    <mergeCell ref="E9:E14"/>
+    <mergeCell ref="F9:F14"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="D15:D19"/>
+    <mergeCell ref="E15:E19"/>
+    <mergeCell ref="F15:F19"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="E38:E40"/>
+    <mergeCell ref="F38:F40"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="F35:F37"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="D44:D47"/>
+    <mergeCell ref="E44:E47"/>
+    <mergeCell ref="F44:F47"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="E41:E43"/>
+    <mergeCell ref="F41:F43"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="F54:F56"/>
+    <mergeCell ref="A48:A53"/>
+    <mergeCell ref="B48:B53"/>
+    <mergeCell ref="C48:C53"/>
+    <mergeCell ref="D48:D53"/>
+    <mergeCell ref="E48:E53"/>
+    <mergeCell ref="F48:F53"/>
     <mergeCell ref="A60:A62"/>
     <mergeCell ref="B60:B62"/>
     <mergeCell ref="C60:C62"/>
@@ -9929,96 +9859,108 @@
     <mergeCell ref="D57:D59"/>
     <mergeCell ref="E57:E59"/>
     <mergeCell ref="F57:F59"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="F54:F56"/>
-    <mergeCell ref="A48:A53"/>
-    <mergeCell ref="B48:B53"/>
-    <mergeCell ref="C48:C53"/>
-    <mergeCell ref="D48:D53"/>
-    <mergeCell ref="E48:E53"/>
-    <mergeCell ref="F48:F53"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="C44:C47"/>
-    <mergeCell ref="D44:D47"/>
-    <mergeCell ref="E44:E47"/>
-    <mergeCell ref="F44:F47"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="E41:E43"/>
-    <mergeCell ref="F41:F43"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="E38:E40"/>
-    <mergeCell ref="F38:F40"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="E35:E37"/>
-    <mergeCell ref="F35:F37"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="F32:F34"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="F29:F31"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="D15:D19"/>
-    <mergeCell ref="E15:E19"/>
-    <mergeCell ref="F15:F19"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="C9:C14"/>
-    <mergeCell ref="D9:D14"/>
-    <mergeCell ref="E9:E14"/>
-    <mergeCell ref="F9:F14"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="F63:F65"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="B72:B76"/>
+    <mergeCell ref="C72:C76"/>
+    <mergeCell ref="D72:D76"/>
+    <mergeCell ref="E72:E76"/>
+    <mergeCell ref="F72:F76"/>
+    <mergeCell ref="A66:A71"/>
+    <mergeCell ref="B66:B71"/>
+    <mergeCell ref="C66:C71"/>
+    <mergeCell ref="D66:D71"/>
+    <mergeCell ref="E66:E71"/>
+    <mergeCell ref="F66:F71"/>
+    <mergeCell ref="A80:A82"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="C80:C82"/>
+    <mergeCell ref="D80:D82"/>
+    <mergeCell ref="E80:E82"/>
+    <mergeCell ref="F80:F82"/>
+    <mergeCell ref="A77:A79"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="C77:C79"/>
+    <mergeCell ref="D77:D79"/>
+    <mergeCell ref="E77:E79"/>
+    <mergeCell ref="F77:F79"/>
+    <mergeCell ref="A86:A88"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="C86:C88"/>
+    <mergeCell ref="D86:D88"/>
+    <mergeCell ref="E86:E88"/>
+    <mergeCell ref="F86:F88"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="D83:D85"/>
+    <mergeCell ref="E83:E85"/>
+    <mergeCell ref="F83:F85"/>
+    <mergeCell ref="A94:A100"/>
+    <mergeCell ref="B94:B100"/>
+    <mergeCell ref="C94:C100"/>
+    <mergeCell ref="D94:D100"/>
+    <mergeCell ref="E94:E100"/>
+    <mergeCell ref="F94:F100"/>
+    <mergeCell ref="A89:A93"/>
+    <mergeCell ref="B89:B93"/>
+    <mergeCell ref="C89:C93"/>
+    <mergeCell ref="D89:D93"/>
+    <mergeCell ref="E89:E93"/>
+    <mergeCell ref="F89:F93"/>
+    <mergeCell ref="A108:A111"/>
+    <mergeCell ref="B108:B111"/>
+    <mergeCell ref="C108:C111"/>
+    <mergeCell ref="D108:D111"/>
+    <mergeCell ref="E108:E111"/>
+    <mergeCell ref="F108:F111"/>
+    <mergeCell ref="A101:A107"/>
+    <mergeCell ref="B101:B107"/>
+    <mergeCell ref="C101:C107"/>
+    <mergeCell ref="D101:D107"/>
+    <mergeCell ref="E101:E107"/>
+    <mergeCell ref="F101:F107"/>
+    <mergeCell ref="A115:A117"/>
+    <mergeCell ref="B115:B117"/>
+    <mergeCell ref="C115:C117"/>
+    <mergeCell ref="D115:D117"/>
+    <mergeCell ref="E115:E117"/>
+    <mergeCell ref="F115:F117"/>
+    <mergeCell ref="A112:A114"/>
+    <mergeCell ref="B112:B114"/>
+    <mergeCell ref="C112:C114"/>
+    <mergeCell ref="D112:D114"/>
+    <mergeCell ref="E112:E114"/>
+    <mergeCell ref="F112:F114"/>
+    <mergeCell ref="A121:A123"/>
+    <mergeCell ref="B121:B123"/>
+    <mergeCell ref="C121:C123"/>
+    <mergeCell ref="D121:D123"/>
+    <mergeCell ref="E121:E123"/>
+    <mergeCell ref="F121:F123"/>
+    <mergeCell ref="A118:A120"/>
+    <mergeCell ref="B118:B120"/>
+    <mergeCell ref="C118:C120"/>
+    <mergeCell ref="D118:D120"/>
+    <mergeCell ref="E118:E120"/>
+    <mergeCell ref="F118:F120"/>
+    <mergeCell ref="A127:A129"/>
+    <mergeCell ref="B127:B129"/>
+    <mergeCell ref="C127:C129"/>
+    <mergeCell ref="D127:D129"/>
+    <mergeCell ref="E127:E129"/>
+    <mergeCell ref="F127:F129"/>
+    <mergeCell ref="A124:A126"/>
+    <mergeCell ref="B124:B126"/>
+    <mergeCell ref="C124:C126"/>
+    <mergeCell ref="D124:D126"/>
+    <mergeCell ref="E124:E126"/>
+    <mergeCell ref="F124:F126"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" tooltip="Key:highway" display="https://wiki.openstreetmap.org/wiki/Key:highway" xr:uid="{60681446-7000-40AF-8FDF-8E9E8AA038B7}"/>
@@ -10053,49 +9995,47 @@
     <hyperlink ref="A60" r:id="rId30" tooltip="Key:route" display="https://wiki.openstreetmap.org/wiki/Key:route" xr:uid="{A1F9B580-20C1-4C36-A5A9-FAA471CD3F58}"/>
     <hyperlink ref="B60" r:id="rId31" tooltip="Tag:route=mtb" display="https://wiki.openstreetmap.org/wiki/Tag:route%3Dmtb" xr:uid="{62D1A522-0FB6-44DE-B00A-1F5BC1908F07}"/>
     <hyperlink ref="D60" r:id="rId32" tooltip="Mountain biking" display="https://wiki.openstreetmap.org/wiki/Mountain_biking" xr:uid="{34339A98-E8E5-4062-82EC-75D5D875B6AF}"/>
-    <hyperlink ref="A63" r:id="rId33" tooltip="Key:route" display="https://wiki.openstreetmap.org/wiki/Key:route" xr:uid="{C174F7A8-1FBA-4207-A7E3-12F7CF7D2BD3}"/>
-    <hyperlink ref="B63" r:id="rId34" tooltip="Tag:route=piste" display="https://wiki.openstreetmap.org/wiki/Tag:route%3Dpiste" xr:uid="{635FA2E2-2548-461A-AA14-445B791416C7}"/>
-    <hyperlink ref="A68" r:id="rId35" tooltip="Key:route" display="https://wiki.openstreetmap.org/wiki/Key:route" xr:uid="{9FDDDB86-80B4-40D9-915E-6C009B712FA6}"/>
-    <hyperlink ref="B68" r:id="rId36" tooltip="Tag:route=railway" display="https://wiki.openstreetmap.org/wiki/Tag:route%3Drailway" xr:uid="{6734E5AC-6301-4C70-A520-D62628FBA5EB}"/>
-    <hyperlink ref="D68" r:id="rId37" tooltip="Railways" display="https://wiki.openstreetmap.org/wiki/Railways" xr:uid="{CD1644FC-EDC9-43B4-8A86-F0D203655845}"/>
-    <hyperlink ref="A71" r:id="rId38" tooltip="Key:route" display="https://wiki.openstreetmap.org/wiki/Key:route" xr:uid="{33038DEC-69F8-40C1-8DD1-03C2B2B63C49}"/>
-    <hyperlink ref="B71" r:id="rId39" tooltip="Tag:route=road" display="https://wiki.openstreetmap.org/wiki/Tag:route%3Droad" xr:uid="{0F36C593-8324-41D8-999E-33E2C45F9A17}"/>
-    <hyperlink ref="A77" r:id="rId40" tooltip="Key:route" display="https://wiki.openstreetmap.org/wiki/Key:route" xr:uid="{7ADDA3C2-577B-4538-A68F-F0CEFFFC8D5C}"/>
-    <hyperlink ref="B77" r:id="rId41" tooltip="Tag:route=subway" display="https://wiki.openstreetmap.org/wiki/Tag:route%3Dsubway" xr:uid="{0C5040F3-E402-4AD4-93F0-D17EB66295D1}"/>
-    <hyperlink ref="A82" r:id="rId42" tooltip="Key:route" display="https://wiki.openstreetmap.org/wiki/Key:route" xr:uid="{DB96807D-7E3C-4DD7-A38A-3A02F790DFE4}"/>
-    <hyperlink ref="B82" r:id="rId43" tooltip="Tag:route=train" display="https://wiki.openstreetmap.org/wiki/Tag:route%3Dtrain" xr:uid="{04590090-6CBE-46CE-9208-EB03A3AEDC0F}"/>
-    <hyperlink ref="D82" r:id="rId44" tooltip="Railways" display="https://wiki.openstreetmap.org/wiki/Railways" xr:uid="{5C380715-F012-45BB-BC42-AA6F17EFC6B7}"/>
-    <hyperlink ref="A85" r:id="rId45" tooltip="Key:route" display="https://wiki.openstreetmap.org/wiki/Key:route" xr:uid="{8AE2A17B-8F12-4BF9-A53E-B6CCB6B1FD41}"/>
-    <hyperlink ref="B85" r:id="rId46" tooltip="Tag:route=tracks" display="https://wiki.openstreetmap.org/wiki/Tag:route%3Dtracks" xr:uid="{BE83C093-4D6E-43E8-9C6B-B9657C1B1FF7}"/>
-    <hyperlink ref="A88" r:id="rId47" tooltip="Key:route" display="https://wiki.openstreetmap.org/wiki/Key:route" xr:uid="{31ACD8E5-8E92-4815-93A6-2A82EAD8BE87}"/>
-    <hyperlink ref="B88" r:id="rId48" tooltip="Tag:route=tram" display="https://wiki.openstreetmap.org/wiki/Tag:route%3Dtram" xr:uid="{9C263B62-DDD2-4F89-A331-B37027455525}"/>
-    <hyperlink ref="D88" r:id="rId49" tooltip="Trams" display="https://wiki.openstreetmap.org/wiki/Trams" xr:uid="{D445949B-64ED-4017-80C5-B9416B2D0765}"/>
-    <hyperlink ref="A91" r:id="rId50" tooltip="Key:route" display="https://wiki.openstreetmap.org/wiki/Key:route" xr:uid="{8FAC47F4-2D4A-473D-B6CA-453B56597C65}"/>
-    <hyperlink ref="B91" r:id="rId51" tooltip="Tag:route=trolleybus" display="https://wiki.openstreetmap.org/wiki/Tag:route%3Dtrolleybus" xr:uid="{34E3E736-A4DA-4D33-9E79-0761FE21DD8B}"/>
-    <hyperlink ref="B44" r:id="rId52" tooltip="Tag:highway=bus stop" display="https://wiki.openstreetmap.org/wiki/Tag:highway%3Dbus_stop" xr:uid="{2C2FBF92-3E31-4A6E-A66C-51E13CDC9EA7}"/>
-    <hyperlink ref="A44" r:id="rId53" tooltip="Key:highway" display="https://wiki.openstreetmap.org/wiki/Key:highway" xr:uid="{217B9714-F6B5-4D51-8CD7-1797073A70A1}"/>
-    <hyperlink ref="A94" r:id="rId54" tooltip="Key:amenity" display="https://wiki.openstreetmap.org/wiki/Key:amenity" xr:uid="{BBFF1A41-268C-4280-B5DF-877454140B22}"/>
-    <hyperlink ref="B94" r:id="rId55" tooltip="Tag:amenity=bicycle parking" display="https://wiki.openstreetmap.org/wiki/Tag:amenity%3Dbicycle_parking" xr:uid="{F43404C0-68DC-4FE6-B6D8-ADAF1A62C59B}"/>
-    <hyperlink ref="A99" r:id="rId56" tooltip="Key:amenity" display="https://wiki.openstreetmap.org/wiki/Key:amenity" xr:uid="{C4E93460-0671-451B-A65E-360760C032C7}"/>
-    <hyperlink ref="B99" r:id="rId57" tooltip="Tag:amenity=bicycle repair station" display="https://wiki.openstreetmap.org/wiki/Tag:amenity%3Dbicycle_repair_station" xr:uid="{DE4CBEE4-1031-4734-ACC7-1CB241877BD6}"/>
-    <hyperlink ref="A106" r:id="rId58" tooltip="Key:amenity" display="https://wiki.openstreetmap.org/wiki/Key:amenity" xr:uid="{D5917A00-8F6F-4BC2-BE61-45359A5673B6}"/>
-    <hyperlink ref="B106" r:id="rId59" tooltip="Tag:amenity=bicycle rental" display="https://wiki.openstreetmap.org/wiki/Tag:amenity%3Dbicycle_rental" xr:uid="{43069823-3302-4678-981A-29C01A6E39EC}"/>
-    <hyperlink ref="A113" r:id="rId60" tooltip="Key:public transport" display="https://wiki.openstreetmap.org/wiki/Key:public_transport" xr:uid="{56918AA9-B1C6-4CBA-A5D7-982969D79F94}"/>
-    <hyperlink ref="B113" r:id="rId61" tooltip="Tag:public transport=stop position" display="https://wiki.openstreetmap.org/wiki/Tag:public_transport%3Dstop_position" xr:uid="{2438FA59-B72D-48BE-BC5B-2DDFFC39DCE4}"/>
-    <hyperlink ref="A117" r:id="rId62" tooltip="Key:public transport" display="https://wiki.openstreetmap.org/wiki/Key:public_transport" xr:uid="{E135A48C-A673-41ED-9797-C49DCC499D90}"/>
-    <hyperlink ref="B117" r:id="rId63" tooltip="Tag:public transport=platform" display="https://wiki.openstreetmap.org/wiki/Tag:public_transport%3Dplatform" xr:uid="{919CCF46-79AC-4DE8-898C-6F1E3D23B022}"/>
-    <hyperlink ref="A120" r:id="rId64" tooltip="Key:railway" display="https://wiki.openstreetmap.org/wiki/Key:railway" xr:uid="{8C88B6EB-7772-4F08-945A-F14C1B596145}"/>
-    <hyperlink ref="B120" r:id="rId65" tooltip="Tag:railway=platform" display="https://wiki.openstreetmap.org/wiki/Tag:railway%3Dplatform" xr:uid="{53660684-DD9E-41AD-B0C9-DF8B100A6398}"/>
-    <hyperlink ref="A123" r:id="rId66" tooltip="Key:public transport" display="https://wiki.openstreetmap.org/wiki/Key:public_transport" xr:uid="{91F3B285-4BF4-4675-9338-1FC19CC496E7}"/>
-    <hyperlink ref="B123" r:id="rId67" tooltip="Tag:public transport=station" display="https://wiki.openstreetmap.org/wiki/Tag:public_transport%3Dstation" xr:uid="{BE5A13C9-C0A0-4F6A-8A1D-5FAF990E747D}"/>
-    <hyperlink ref="A126" r:id="rId68" tooltip="Key:railway" display="https://wiki.openstreetmap.org/wiki/Key:railway" xr:uid="{5F1EC45A-ADAA-4348-AF7A-EAE39E2B4B9E}"/>
-    <hyperlink ref="B126" r:id="rId69" tooltip="Tag:railway=station" display="https://wiki.openstreetmap.org/wiki/Tag:railway%3Dstation" xr:uid="{E551299F-B7A4-40D8-94FF-CE282C13B036}"/>
-    <hyperlink ref="A129" r:id="rId70" tooltip="Key:railway" display="https://wiki.openstreetmap.org/wiki/Key:railway" xr:uid="{0073FA59-3AFC-47FB-84BE-E0EB4AB6294B}"/>
-    <hyperlink ref="B129" r:id="rId71" tooltip="Tag:railway=subway entrance" display="https://wiki.openstreetmap.org/wiki/Tag:railway%3Dsubway_entrance" xr:uid="{CEE7A92C-ACD0-4CAE-B6C0-058A104986E5}"/>
-    <hyperlink ref="A132" r:id="rId72" tooltip="Key:railway" display="https://wiki.openstreetmap.org/wiki/Key:railway" xr:uid="{03F6FA5F-742F-4902-B34E-6603473F82A4}"/>
-    <hyperlink ref="B132" r:id="rId73" tooltip="Tag:railway=tram stop" display="https://wiki.openstreetmap.org/wiki/Tag:railway%3Dtram_stop" xr:uid="{2FAB7F61-ACE9-4DA0-B232-EA1DCA44D2DE}"/>
+    <hyperlink ref="A63" r:id="rId33" tooltip="Key:route" display="https://wiki.openstreetmap.org/wiki/Key:route" xr:uid="{9FDDDB86-80B4-40D9-915E-6C009B712FA6}"/>
+    <hyperlink ref="B63" r:id="rId34" tooltip="Tag:route=railway" display="https://wiki.openstreetmap.org/wiki/Tag:route%3Drailway" xr:uid="{6734E5AC-6301-4C70-A520-D62628FBA5EB}"/>
+    <hyperlink ref="D63" r:id="rId35" tooltip="Railways" display="https://wiki.openstreetmap.org/wiki/Railways" xr:uid="{CD1644FC-EDC9-43B4-8A86-F0D203655845}"/>
+    <hyperlink ref="A66" r:id="rId36" tooltip="Key:route" display="https://wiki.openstreetmap.org/wiki/Key:route" xr:uid="{33038DEC-69F8-40C1-8DD1-03C2B2B63C49}"/>
+    <hyperlink ref="B66" r:id="rId37" tooltip="Tag:route=road" display="https://wiki.openstreetmap.org/wiki/Tag:route%3Droad" xr:uid="{0F36C593-8324-41D8-999E-33E2C45F9A17}"/>
+    <hyperlink ref="A72" r:id="rId38" tooltip="Key:route" display="https://wiki.openstreetmap.org/wiki/Key:route" xr:uid="{7ADDA3C2-577B-4538-A68F-F0CEFFFC8D5C}"/>
+    <hyperlink ref="B72" r:id="rId39" tooltip="Tag:route=subway" display="https://wiki.openstreetmap.org/wiki/Tag:route%3Dsubway" xr:uid="{0C5040F3-E402-4AD4-93F0-D17EB66295D1}"/>
+    <hyperlink ref="A77" r:id="rId40" tooltip="Key:route" display="https://wiki.openstreetmap.org/wiki/Key:route" xr:uid="{DB96807D-7E3C-4DD7-A38A-3A02F790DFE4}"/>
+    <hyperlink ref="B77" r:id="rId41" tooltip="Tag:route=train" display="https://wiki.openstreetmap.org/wiki/Tag:route%3Dtrain" xr:uid="{04590090-6CBE-46CE-9208-EB03A3AEDC0F}"/>
+    <hyperlink ref="D77" r:id="rId42" tooltip="Railways" display="https://wiki.openstreetmap.org/wiki/Railways" xr:uid="{5C380715-F012-45BB-BC42-AA6F17EFC6B7}"/>
+    <hyperlink ref="A80" r:id="rId43" tooltip="Key:route" display="https://wiki.openstreetmap.org/wiki/Key:route" xr:uid="{8AE2A17B-8F12-4BF9-A53E-B6CCB6B1FD41}"/>
+    <hyperlink ref="B80" r:id="rId44" tooltip="Tag:route=tracks" display="https://wiki.openstreetmap.org/wiki/Tag:route%3Dtracks" xr:uid="{BE83C093-4D6E-43E8-9C6B-B9657C1B1FF7}"/>
+    <hyperlink ref="A83" r:id="rId45" tooltip="Key:route" display="https://wiki.openstreetmap.org/wiki/Key:route" xr:uid="{31ACD8E5-8E92-4815-93A6-2A82EAD8BE87}"/>
+    <hyperlink ref="B83" r:id="rId46" tooltip="Tag:route=tram" display="https://wiki.openstreetmap.org/wiki/Tag:route%3Dtram" xr:uid="{9C263B62-DDD2-4F89-A331-B37027455525}"/>
+    <hyperlink ref="D83" r:id="rId47" tooltip="Trams" display="https://wiki.openstreetmap.org/wiki/Trams" xr:uid="{D445949B-64ED-4017-80C5-B9416B2D0765}"/>
+    <hyperlink ref="A86" r:id="rId48" tooltip="Key:route" display="https://wiki.openstreetmap.org/wiki/Key:route" xr:uid="{8FAC47F4-2D4A-473D-B6CA-453B56597C65}"/>
+    <hyperlink ref="B86" r:id="rId49" tooltip="Tag:route=trolleybus" display="https://wiki.openstreetmap.org/wiki/Tag:route%3Dtrolleybus" xr:uid="{34E3E736-A4DA-4D33-9E79-0761FE21DD8B}"/>
+    <hyperlink ref="B44" r:id="rId50" tooltip="Tag:highway=bus stop" display="https://wiki.openstreetmap.org/wiki/Tag:highway%3Dbus_stop" xr:uid="{2C2FBF92-3E31-4A6E-A66C-51E13CDC9EA7}"/>
+    <hyperlink ref="A44" r:id="rId51" tooltip="Key:highway" display="https://wiki.openstreetmap.org/wiki/Key:highway" xr:uid="{217B9714-F6B5-4D51-8CD7-1797073A70A1}"/>
+    <hyperlink ref="A89" r:id="rId52" tooltip="Key:amenity" display="https://wiki.openstreetmap.org/wiki/Key:amenity" xr:uid="{BBFF1A41-268C-4280-B5DF-877454140B22}"/>
+    <hyperlink ref="B89" r:id="rId53" tooltip="Tag:amenity=bicycle parking" display="https://wiki.openstreetmap.org/wiki/Tag:amenity%3Dbicycle_parking" xr:uid="{F43404C0-68DC-4FE6-B6D8-ADAF1A62C59B}"/>
+    <hyperlink ref="A94" r:id="rId54" tooltip="Key:amenity" display="https://wiki.openstreetmap.org/wiki/Key:amenity" xr:uid="{C4E93460-0671-451B-A65E-360760C032C7}"/>
+    <hyperlink ref="B94" r:id="rId55" tooltip="Tag:amenity=bicycle repair station" display="https://wiki.openstreetmap.org/wiki/Tag:amenity%3Dbicycle_repair_station" xr:uid="{DE4CBEE4-1031-4734-ACC7-1CB241877BD6}"/>
+    <hyperlink ref="A101" r:id="rId56" tooltip="Key:amenity" display="https://wiki.openstreetmap.org/wiki/Key:amenity" xr:uid="{D5917A00-8F6F-4BC2-BE61-45359A5673B6}"/>
+    <hyperlink ref="B101" r:id="rId57" tooltip="Tag:amenity=bicycle rental" display="https://wiki.openstreetmap.org/wiki/Tag:amenity%3Dbicycle_rental" xr:uid="{43069823-3302-4678-981A-29C01A6E39EC}"/>
+    <hyperlink ref="A108" r:id="rId58" tooltip="Key:public transport" display="https://wiki.openstreetmap.org/wiki/Key:public_transport" xr:uid="{56918AA9-B1C6-4CBA-A5D7-982969D79F94}"/>
+    <hyperlink ref="B108" r:id="rId59" tooltip="Tag:public transport=stop position" display="https://wiki.openstreetmap.org/wiki/Tag:public_transport%3Dstop_position" xr:uid="{2438FA59-B72D-48BE-BC5B-2DDFFC39DCE4}"/>
+    <hyperlink ref="A112" r:id="rId60" tooltip="Key:public transport" display="https://wiki.openstreetmap.org/wiki/Key:public_transport" xr:uid="{E135A48C-A673-41ED-9797-C49DCC499D90}"/>
+    <hyperlink ref="B112" r:id="rId61" tooltip="Tag:public transport=platform" display="https://wiki.openstreetmap.org/wiki/Tag:public_transport%3Dplatform" xr:uid="{919CCF46-79AC-4DE8-898C-6F1E3D23B022}"/>
+    <hyperlink ref="A115" r:id="rId62" tooltip="Key:railway" display="https://wiki.openstreetmap.org/wiki/Key:railway" xr:uid="{8C88B6EB-7772-4F08-945A-F14C1B596145}"/>
+    <hyperlink ref="B115" r:id="rId63" tooltip="Tag:railway=platform" display="https://wiki.openstreetmap.org/wiki/Tag:railway%3Dplatform" xr:uid="{53660684-DD9E-41AD-B0C9-DF8B100A6398}"/>
+    <hyperlink ref="A118" r:id="rId64" tooltip="Key:public transport" display="https://wiki.openstreetmap.org/wiki/Key:public_transport" xr:uid="{91F3B285-4BF4-4675-9338-1FC19CC496E7}"/>
+    <hyperlink ref="B118" r:id="rId65" tooltip="Tag:public transport=station" display="https://wiki.openstreetmap.org/wiki/Tag:public_transport%3Dstation" xr:uid="{BE5A13C9-C0A0-4F6A-8A1D-5FAF990E747D}"/>
+    <hyperlink ref="A121" r:id="rId66" tooltip="Key:railway" display="https://wiki.openstreetmap.org/wiki/Key:railway" xr:uid="{5F1EC45A-ADAA-4348-AF7A-EAE39E2B4B9E}"/>
+    <hyperlink ref="B121" r:id="rId67" tooltip="Tag:railway=station" display="https://wiki.openstreetmap.org/wiki/Tag:railway%3Dstation" xr:uid="{E551299F-B7A4-40D8-94FF-CE282C13B036}"/>
+    <hyperlink ref="A124" r:id="rId68" tooltip="Key:railway" display="https://wiki.openstreetmap.org/wiki/Key:railway" xr:uid="{0073FA59-3AFC-47FB-84BE-E0EB4AB6294B}"/>
+    <hyperlink ref="B124" r:id="rId69" tooltip="Tag:railway=subway entrance" display="https://wiki.openstreetmap.org/wiki/Tag:railway%3Dsubway_entrance" xr:uid="{CEE7A92C-ACD0-4CAE-B6C0-058A104986E5}"/>
+    <hyperlink ref="A127" r:id="rId70" tooltip="Key:railway" display="https://wiki.openstreetmap.org/wiki/Key:railway" xr:uid="{03F6FA5F-742F-4902-B34E-6603473F82A4}"/>
+    <hyperlink ref="B127" r:id="rId71" tooltip="Tag:railway=tram stop" display="https://wiki.openstreetmap.org/wiki/Tag:railway%3Dtram_stop" xr:uid="{2FAB7F61-ACE9-4DA0-B232-EA1DCA44D2DE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId74"/>
+  <drawing r:id="rId72"/>
 </worksheet>
 </file>